--- a/imageCreationExcel/back/107/107_10.xlsx
+++ b/imageCreationExcel/back/107/107_10.xlsx
@@ -486,7 +486,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>28.87115494444758</v>
+        <v>10.50778612639148</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -503,22 +503,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.072401743614627</v>
+        <v>0.8110278166161385</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.6123710329282178</v>
+        <v>0.3418002043503175</v>
       </c>
       <c r="I2" t="n">
         <v>4</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1_1_brightness28.871_contrast1.072_gamma0.612.jpg</t>
+          <t>1_P_brightness10.508_contrast0.811_sharpness0.342.jpg</t>
         </is>
       </c>
     </row>
@@ -528,39 +528,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>28.4712847815671</v>
+        <v>1.142379148132602</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.164910896040284</v>
+        <v>0.04791704208032952</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.6261262310150957</v>
+        <v>18.63435103157859</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2_2_brightness28.471_contrast1.165_gamma0.626.jpg</t>
+          <t>2_B_contrast1.142_sharpness0.048_equalization18.634.jpg</t>
         </is>
       </c>
     </row>
@@ -570,7 +570,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -579,7 +579,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.9262591471838238</v>
+        <v>0.8593734751175823</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.036812962199569</v>
+        <v>0.9338215639809411</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -595,14 +595,14 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.7501954971638283</v>
+        <v>0.7717108106563271</v>
       </c>
       <c r="I4" t="n">
         <v>4</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3_0_contrast0.926_gamma1.037_sharpness0.75.jpg</t>
+          <t>3_2_contrast0.859_gamma0.934_sharpness0.772.jpg</t>
         </is>
       </c>
     </row>
@@ -612,39 +612,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.9546335348570307</v>
+        <v>13.39592900030701</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.8491144251563959</v>
+        <v>1.182292762093187</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>25.61572730303868</v>
+        <v>0.8578376226270721</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4_C_contrast0.955_gamma0.849_equalization25.616.jpg</t>
+          <t>4_2_brightness13.396_contrast1.182_gamma0.858.jpg</t>
         </is>
       </c>
     </row>
@@ -654,16 +654,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.006615143962764</v>
+        <v>3.269654248080204</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.9135505749127647</v>
+        <v>0.5454060417149673</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -679,14 +679,14 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.1891841018681999</v>
+        <v>0.9119036342572986</v>
       </c>
       <c r="I6" t="n">
         <v>4</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5_I_contrast1.007_gamma0.914_sharpness0.189.jpg</t>
+          <t>5_S_brightness3.27_gamma0.545_sharpness0.912.jpg</t>
         </is>
       </c>
     </row>
@@ -696,39 +696,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>13.8409131375383</v>
+        <v>0.5625705357388027</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.103765486779218</v>
+        <v>0.4382059816880673</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.355700425819592</v>
+        <v>4.996296105295152</v>
       </c>
       <c r="I7" t="n">
         <v>4</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6_C_brightness13.841_contrast1.104_sharpness0.356.jpg</t>
+          <t>6_8_gamma0.563_sharpness0.438_equalization4.996.jpg</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -747,15 +747,15 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1.044349043372093</v>
+        <v>1.08070216705698</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.7097089039248282</v>
+        <v>0.8822602468660321</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -763,14 +763,14 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>13.32163346969445</v>
+        <v>20.11137596394764</v>
       </c>
       <c r="I8" t="n">
         <v>4</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7_3_contrast1.044_gamma0.71_equalization13.322.jpg</t>
+          <t>7_8_contrast1.081_sharpness0.882_equalization20.111.jpg</t>
         </is>
       </c>
     </row>
@@ -780,39 +780,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>21.46133918511133</v>
+        <v>1.188148025282634</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.08364025079676</v>
+        <v>0.6028572512036812</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0.8919924585573844</v>
+        <v>13.42508391099187</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8_S_brightness21.461_contrast1.084_gamma0.892.jpg</t>
+          <t>8_9_contrast1.188_gamma0.603_equalization13.425.jpg</t>
         </is>
       </c>
     </row>
@@ -822,7 +822,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1.149107027226358</v>
+        <v>6.404383921670012</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -839,22 +839,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.8161417631368695</v>
+        <v>1.118886311740908</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.6260712528029929</v>
+        <v>0.9661199590609812</v>
       </c>
       <c r="I10" t="n">
         <v>4</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9_0_brightness1.149_contrast0.816_sharpness0.626.jpg</t>
+          <t>9_E_brightness6.404_contrast1.119_gamma0.966.jpg</t>
         </is>
       </c>
     </row>
@@ -864,7 +864,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -873,7 +873,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1.159729943101255</v>
+        <v>0.9751039215150689</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.9443874722386392</v>
+        <v>0.5813663972120895</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -889,14 +889,14 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0.2094243131234917</v>
+        <v>0.2047274143788915</v>
       </c>
       <c r="I11" t="n">
         <v>4</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10_I_contrast1.16_gamma0.944_sharpness0.209.jpg</t>
+          <t>10_8_contrast0.975_gamma0.581_sharpness0.205.jpg</t>
         </is>
       </c>
     </row>
@@ -906,39 +906,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>22.02288251555854</v>
+        <v>0.8147229177807918</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.01631509797028</v>
+        <v>0.9262835500869118</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.7447252105624136</v>
+        <v>11.67684352127977</v>
       </c>
       <c r="I12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11_S_brightness22.023_gamma1.016_sharpness0.745.jpg</t>
+          <t>11_2_gamma0.815_sharpness0.926_equalization11.677.jpg</t>
         </is>
       </c>
     </row>
@@ -948,7 +948,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -957,7 +957,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1.160961733436595</v>
+        <v>1.044349990501619</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -965,7 +965,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.08775329092256</v>
+        <v>0.757635046921338</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -973,14 +973,14 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.2021876181868097</v>
+        <v>0.6613123936769623</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12_7_contrast1.161_gamma1.088_sharpness0.202.jpg</t>
+          <t>12_P_contrast1.044_gamma0.758_sharpness0.661.jpg</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -999,7 +999,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.9333499631439448</v>
+        <v>0.9188256754106883</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.7895090105334142</v>
+        <v>0.6024898444596303</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1015,14 +1015,14 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>7.000557956059112</v>
+        <v>29.43836819699357</v>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13_2_contrast0.933_sharpness0.79_equalization7.001.jpg</t>
+          <t>13_P_contrast0.919_sharpness0.602_equalization29.438.jpg</t>
         </is>
       </c>
     </row>
@@ -1032,39 +1032,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>4.978119587614088</v>
+        <v>1.040633596255295</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.12525963108385</v>
+        <v>1.072827548035054</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.2454279125669195</v>
+        <v>25.13506159028966</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14_0_brightness4.978_contrast1.125_sharpness0.245.jpg</t>
+          <t>14_E_contrast1.041_gamma1.073_equalization25.135.jpg</t>
         </is>
       </c>
     </row>
@@ -1074,39 +1074,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>27.53959507070421</v>
+        <v>0.8009063203592747</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.9237095854783214</v>
+        <v>0.206045109730751</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.1225954961470166</v>
+        <v>5.774102251929898</v>
       </c>
       <c r="I16" t="n">
         <v>4</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15_S_brightness27.54_gamma0.924_sharpness0.123.jpg</t>
+          <t>15_0_contrast0.801_sharpness0.206_equalization5.774.jpg</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1125,30 +1125,30 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.8675122493170558</v>
+        <v>0.8123633222639399</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.2072254584425537</v>
+        <v>0.5714891889471566</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>8.168426442351983</v>
+        <v>0.3424930524123835</v>
       </c>
       <c r="I17" t="n">
         <v>4</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16_8_contrast0.868_sharpness0.207_equalization8.168.jpg</t>
+          <t>16_I_contrast0.812_gamma0.571_sharpness0.342.jpg</t>
         </is>
       </c>
     </row>
@@ -1167,7 +1167,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1.343720579710675</v>
+        <v>9.565000789896567</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.008694209349158</v>
+        <v>0.8746668508921766</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1183,14 +1183,14 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0.6970621920697219</v>
+        <v>0.8433422033156419</v>
       </c>
       <c r="I18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17_7_brightness1.344_contrast1.009_gamma0.697.jpg</t>
+          <t>17_7_brightness9.565_contrast0.875_gamma0.843.jpg</t>
         </is>
       </c>
     </row>
@@ -1200,39 +1200,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>21.53547940627366</v>
+        <v>0.814911600340243</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.9458148377323031</v>
+        <v>0.9745942149407469</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>1.082286641751683</v>
+        <v>0.9337173063536838</v>
       </c>
       <c r="I19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18_1_brightness21.535_contrast0.946_gamma1.082.jpg</t>
+          <t>18_7_contrast0.815_gamma0.975_sharpness0.934.jpg</t>
         </is>
       </c>
     </row>
@@ -1242,39 +1242,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.82461620043586</v>
+        <v>20.20590883977042</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.8307279547900546</v>
+        <v>1.065497080548202</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>4.109376611696508</v>
+        <v>0.7685430285385526</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19_S_gamma0.825_sharpness0.831_equalization4.109.jpg</t>
+          <t>19_I_brightness20.206_contrast1.065_sharpness0.769.jpg</t>
         </is>
       </c>
     </row>
@@ -1284,39 +1284,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.8332891002355293</v>
+        <v>3.852280328701712</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.6400121566069138</v>
+        <v>0.8632096412065338</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>31.8779008790492</v>
+        <v>0.8192036572463403</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20_7_contrast0.833_sharpness0.64_equalization31.878.jpg</t>
+          <t>20_S_brightness3.852_gamma0.863_sharpness0.819.jpg</t>
         </is>
       </c>
     </row>
@@ -1326,16 +1326,16 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>25.82119304026482</v>
+        <v>1.121727482485114</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1343,22 +1343,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.5944392284042735</v>
+        <v>0.8859541756224171</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>0.4900957409777117</v>
+        <v>19.34942536120596</v>
       </c>
       <c r="I22" t="n">
         <v>4</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21_P_brightness25.821_gamma0.594_sharpness0.49.jpg</t>
+          <t>21_8_contrast1.122_gamma0.886_equalization19.349.jpg</t>
         </is>
       </c>
     </row>
@@ -1368,16 +1368,16 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1.04725879508608</v>
+        <v>28.34261132317937</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1385,22 +1385,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.7424752993294039</v>
+        <v>0.7380531619358585</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>14.25831167717369</v>
+        <v>0.1013002113277716</v>
       </c>
       <c r="I23" t="n">
         <v>4</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>22_7_contrast1.047_gamma0.742_equalization14.258.jpg</t>
+          <t>22_2_brightness28.343_gamma0.738_sharpness0.101.jpg</t>
         </is>
       </c>
     </row>
@@ -1410,39 +1410,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>16.19310441556308</v>
+        <v>1.017489776753099</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.08090353453772</v>
+        <v>0.7672275580387621</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>0.6534854382609776</v>
+        <v>14.05008510419431</v>
       </c>
       <c r="I24" t="n">
         <v>4</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23_2_brightness16.193_contrast1.081_gamma0.653.jpg</t>
+          <t>23_B_contrast1.017_gamma0.767_equalization14.05.jpg</t>
         </is>
       </c>
     </row>
@@ -1457,34 +1457,34 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.2676025982816865</v>
+        <v>0.9193353534986234</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.9091152590215368</v>
+        <v>0.07317262115916252</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>0.7347967227859448</v>
+        <v>24.04550713583069</v>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>24_B_brightness0.268_contrast0.909_gamma0.735.jpg</t>
+          <t>24_B_contrast0.919_sharpness0.073_equalization24.046.jpg</t>
         </is>
       </c>
     </row>
@@ -1494,16 +1494,16 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.8958965997497178</v>
+        <v>7.838142739960623</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.5013842342675028</v>
+        <v>1.019804354942017</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1519,14 +1519,14 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0.5186820660689393</v>
+        <v>0.9871133994257787</v>
       </c>
       <c r="I26" t="n">
         <v>4</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>25_E_contrast0.896_gamma0.501_sharpness0.519.jpg</t>
+          <t>25_P_brightness7.838_gamma1.02_sharpness0.987.jpg</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1545,7 +1545,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.9621301739241072</v>
+        <v>1.020985278987664</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.7859915667851284</v>
+        <v>0.7902898950297903</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1561,14 +1561,14 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>13.67236264171538</v>
+        <v>6.370279244858817</v>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>26_I_contrast0.962_gamma0.786_equalization13.672.jpg</t>
+          <t>26_C_contrast1.021_gamma0.79_equalization6.37.jpg</t>
         </is>
       </c>
     </row>
@@ -1578,7 +1578,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1587,30 +1587,30 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.8548936293500153</v>
+        <v>0.8325187139653166</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.9170605503266989</v>
+        <v>0.8529408938713073</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.7047443275514399</v>
+        <v>14.58380997780303</v>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>27_3_contrast0.855_gamma0.917_sharpness0.705.jpg</t>
+          <t>27_2_contrast0.833_sharpness0.853_equalization14.584.jpg</t>
         </is>
       </c>
     </row>
@@ -1620,16 +1620,16 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.72390526499096</v>
+        <v>1.099812915559506</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.6172519685363618</v>
+        <v>0.4338497869350271</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1645,14 +1645,14 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>31.76460860365454</v>
+        <v>24.43030886521723</v>
       </c>
       <c r="I29" t="n">
         <v>4</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>28_B_gamma0.724_sharpness0.617_equalization31.765.jpg</t>
+          <t>28_0_contrast1.1_sharpness0.434_equalization24.43.jpg</t>
         </is>
       </c>
     </row>
@@ -1662,7 +1662,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1671,30 +1671,30 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1.038406193110897</v>
+        <v>0.9900886397857039</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.5366471944417608</v>
+        <v>0.5255684735608712</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>24.53011908316796</v>
+        <v>0.8761576804049618</v>
       </c>
       <c r="I30" t="n">
         <v>4</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>29_C_contrast1.038_sharpness0.537_equalization24.53.jpg</t>
+          <t>29_7_contrast0.99_gamma0.526_sharpness0.876.jpg</t>
         </is>
       </c>
     </row>
@@ -1704,39 +1704,39 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.9630104936741177</v>
+        <v>1.013309038401701</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.8384236616294496</v>
+        <v>0.4862321983565996</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>0.406693498461582</v>
+        <v>31.1796076105333</v>
       </c>
       <c r="I31" t="n">
         <v>4</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>30_1_contrast0.963_gamma0.838_sharpness0.407.jpg</t>
+          <t>30_9_gamma1.013_sharpness0.486_equalization31.18.jpg</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1746,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1755,7 +1755,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1.080827508626947</v>
+        <v>0.957597920155478</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.9514906320346767</v>
+        <v>0.08446582588728929</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1771,14 +1771,14 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>14.60826260723637</v>
+        <v>25.68759354453973</v>
       </c>
       <c r="I32" t="n">
         <v>4</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>31_T_contrast1.081_sharpness0.951_equalization14.608.jpg</t>
+          <t>31_S_contrast0.958_sharpness0.084_equalization25.688.jpg</t>
         </is>
       </c>
     </row>
@@ -1797,30 +1797,30 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1.13211924645117</v>
+        <v>0.9767949507802776</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.9112948973735204</v>
+        <v>0.614465583258058</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>14.37656745151055</v>
+        <v>0.01082442877502552</v>
       </c>
       <c r="I33" t="n">
         <v>4</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32_2_contrast1.132_sharpness0.911_equalization14.377.jpg</t>
+          <t>32_2_contrast0.977_gamma0.614_sharpness0.011.jpg</t>
         </is>
       </c>
     </row>
@@ -1830,39 +1830,39 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.317410228501469</v>
+        <v>1.18250691664552</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.7581102638137324</v>
+        <v>0.8031649441992428</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0.5365650826335109</v>
+        <v>14.08019055342975</v>
       </c>
       <c r="I34" t="n">
         <v>4</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>33_3_brightness0.317_gamma0.758_sharpness0.537.jpg</t>
+          <t>33_S_contrast1.183_sharpness0.803_equalization14.08.jpg</t>
         </is>
       </c>
     </row>
@@ -1872,7 +1872,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1881,30 +1881,30 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.8634148255150874</v>
+        <v>1.088818202618689</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.2709798228343405</v>
+        <v>1.02573229729647</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>25.83824834378881</v>
+        <v>0.3751345087123331</v>
       </c>
       <c r="I35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>34_E_contrast0.863_sharpness0.271_equalization25.838.jpg</t>
+          <t>34_I_contrast1.089_gamma1.026_sharpness0.375.jpg</t>
         </is>
       </c>
     </row>
@@ -1914,16 +1914,16 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1.044306871692585</v>
+        <v>14.27752099165968</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1931,22 +1931,22 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.8348596018503667</v>
+        <v>0.836836793023778</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>29.62801236860944</v>
+        <v>0.4705890917921167</v>
       </c>
       <c r="I36" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>35_3_contrast1.044_gamma0.835_equalization29.628.jpg</t>
+          <t>35_0_brightness14.278_gamma0.837_sharpness0.471.jpg</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1965,7 +1965,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.9984709523270718</v>
+        <v>1.159831265034925</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.8016639327853028</v>
+        <v>0.8547773085526453</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1981,14 +1981,14 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>5.983462178742959</v>
+        <v>14.10857475044481</v>
       </c>
       <c r="I37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>36_9_contrast0.998_gamma0.802_equalization5.983.jpg</t>
+          <t>36_1_contrast1.16_gamma0.855_equalization14.109.jpg</t>
         </is>
       </c>
     </row>
@@ -1998,39 +1998,39 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>21.82635509136407</v>
+        <v>0.8468480794657075</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.9487187924649586</v>
+        <v>0.5221507106316502</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>0.4916924922795326</v>
+        <v>26.26444255384763</v>
       </c>
       <c r="I38" t="n">
         <v>4</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>37_1_brightness21.826_contrast0.949_sharpness0.492.jpg</t>
+          <t>37_3_contrast0.847_gamma0.522_equalization26.264.jpg</t>
         </is>
       </c>
     </row>
@@ -2040,39 +2040,39 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.9394254544510535</v>
+        <v>1.078871788086837</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.5014020241012844</v>
+        <v>0.7517453635289904</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>0.3176952106665735</v>
+        <v>29.19107977444505</v>
       </c>
       <c r="I39" t="n">
         <v>4</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>38_8_contrast0.939_gamma0.501_sharpness0.318.jpg</t>
+          <t>38_B_gamma1.079_sharpness0.752_equalization29.191.jpg</t>
         </is>
       </c>
     </row>
@@ -2087,34 +2087,34 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>29.19236954070416</v>
+        <v>0.9480987765214469</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.7347772486281781</v>
+        <v>0.2021991154305542</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>0.6812134115457129</v>
+        <v>18.84768148647034</v>
       </c>
       <c r="I40" t="n">
         <v>4</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>39_E_brightness29.192_gamma0.735_sharpness0.681.jpg</t>
+          <t>39_E_contrast0.948_sharpness0.202_equalization18.848.jpg</t>
         </is>
       </c>
     </row>
@@ -2124,7 +2124,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2133,15 +2133,15 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>14.75227046306145</v>
+        <v>4.775226210777887</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.114363235516506</v>
+        <v>0.7248834109840336</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2149,14 +2149,14 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>0.1422300332912191</v>
+        <v>0.9315056455504733</v>
       </c>
       <c r="I41" t="n">
         <v>4</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>40_7_brightness14.752_contrast1.114_sharpness0.142.jpg</t>
+          <t>40_C_brightness4.775_gamma0.725_sharpness0.932.jpg</t>
         </is>
       </c>
     </row>
@@ -2166,39 +2166,39 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.6172121047966198</v>
+        <v>20.83345310747919</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.3706430149713514</v>
+        <v>0.7618483754097823</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>30.18869660415452</v>
+        <v>0.7618753957019733</v>
       </c>
       <c r="I42" t="n">
         <v>4</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>41_T_gamma0.617_sharpness0.371_equalization30.189.jpg</t>
+          <t>41_7_brightness20.833_gamma0.762_sharpness0.762.jpg</t>
         </is>
       </c>
     </row>
@@ -2208,39 +2208,39 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1.118774242846824</v>
+        <v>0.8642351071983172</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.088931677313805</v>
+        <v>0.9496684052848764</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>0.6155981089114009</v>
+        <v>17.27025272591846</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>42_0_contrast1.119_gamma1.089_sharpness0.616.jpg</t>
+          <t>42_E_gamma0.864_sharpness0.95_equalization17.27.jpg</t>
         </is>
       </c>
     </row>
@@ -2250,39 +2250,39 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>21.48864278760412</v>
+        <v>0.5169312566467441</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.9112993642336322</v>
+        <v>0.09929730501843892</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>0.9617759247300608</v>
+        <v>24.25068886110411</v>
       </c>
       <c r="I44" t="n">
         <v>4</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>43_7_brightness21.489_contrast0.911_sharpness0.962.jpg</t>
+          <t>43_3_gamma0.517_sharpness0.099_equalization24.251.jpg</t>
         </is>
       </c>
     </row>
@@ -2292,16 +2292,16 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>17.00770714793115</v>
+        <v>0.9301020828405856</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.8035537276623471</v>
+        <v>0.5818251018869872</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2317,14 +2317,14 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>0.3345667931289354</v>
+        <v>0.9563894241512949</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>44_C_brightness17.008_gamma0.804_sharpness0.335.jpg</t>
+          <t>44_0_contrast0.93_gamma0.582_sharpness0.956.jpg</t>
         </is>
       </c>
     </row>
@@ -2334,7 +2334,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2343,15 +2343,15 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1.15900169423727</v>
+        <v>1.176415672568848</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.7144992284264451</v>
+        <v>0.5825669076138116</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2359,14 +2359,14 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>26.79825261842182</v>
+        <v>28.06802876611965</v>
       </c>
       <c r="I46" t="n">
         <v>4</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>45_I_contrast1.159_sharpness0.714_equalization26.798.jpg</t>
+          <t>45_3_contrast1.176_gamma0.583_equalization28.068.jpg</t>
         </is>
       </c>
     </row>
@@ -2376,39 +2376,39 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1.10976359644273</v>
+        <v>21.60235769585955</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.8683269557419544</v>
+        <v>1.189900753753202</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>13.34631986946743</v>
+        <v>0.803351459521071</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>46_0_contrast1.11_gamma0.868_equalization13.346.jpg</t>
+          <t>46_T_brightness21.602_contrast1.19_sharpness0.803.jpg</t>
         </is>
       </c>
     </row>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2427,7 +2427,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.5834066063760164</v>
+        <v>0.6777372171127867</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.1694817042698425</v>
+        <v>0.6074461062266818</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2443,14 +2443,14 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>8.430071124599941</v>
+        <v>4.285270015674637</v>
       </c>
       <c r="I48" t="n">
         <v>4</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>47_3_gamma0.583_sharpness0.169_equalization8.43.jpg</t>
+          <t>47_2_gamma0.678_sharpness0.607_equalization4.285.jpg</t>
         </is>
       </c>
     </row>
@@ -2460,39 +2460,39 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.667144636625856</v>
+        <v>26.98665713968157</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.558105885907799</v>
+        <v>1.112390507432405</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>27.60331296100798</v>
+        <v>0.03572492466690994</v>
       </c>
       <c r="I49" t="n">
         <v>4</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>48_B_gamma0.667_sharpness0.558_equalization27.603.jpg</t>
+          <t>48_7_brightness26.987_contrast1.112_sharpness0.036.jpg</t>
         </is>
       </c>
     </row>
